--- a/us_headlines.xlsx
+++ b/us_headlines.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4483,7 +4484,6 @@
           <t>{'id': 'politico', 'name': 'Politico'}</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Beijing shrugs at U.S. call for help protecting Red Sea shipping - POLITICO</t>
@@ -4521,7 +4521,6 @@
           <t>{'id': None, 'name': 'Euronews'}</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Streets of Argentina erupt with anger against new Milei proposals - Euronews</t>
@@ -4774,7 +4773,6 @@
           <t>{'id': 'associated-press', 'name': 'Associated Press'}</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>Czech police say people have been killed in a shooting in downtown Prague - The Associated Press</t>
@@ -4813,7 +4811,6 @@
           <t>{'id': 'financial-times', 'name': 'Financial Times'}</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>Apple wants AI to run directly on its hardware instead of in the cloud - Ars Technica</t>
@@ -4829,7 +4826,6 @@
           <t>https://www.ft.com/content/10685ed7-4b8f-4411-ae2e-5de1e3454027</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>2023-12-21T14:43:43Z</t>
@@ -4847,7 +4843,6 @@
           <t>{'id': None, 'name': 'BaltimoreRavens.com'}</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>Brian Baldinger: 'In a Sport Full of Stars, Lamar Jackson Is the Biggest Star' | Late for Work 12/21 - BaltimoreRavens.com</t>
@@ -4886,7 +4881,6 @@
           <t>{'id': 'financial-times', 'name': 'Financial Times'}</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>Hamas refuses to discuss new hostage deal before ceasefire - Financial Times</t>
@@ -4902,7 +4896,6 @@
           <t>https://www.ft.com/content/ba95dc0c-c5f1-45a0-98be-5659bf3898b9</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>2023-12-21T14:34:08Z</t>
@@ -4920,7 +4913,6 @@
           <t>{'id': None, 'name': '[Removed]'}</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>[Removed]</t>
@@ -4936,7 +4928,6 @@
           <t>https://removed.com</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>1970-01-01T00:00:00Z</t>
@@ -5126,4 +5117,870 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>urlToImage</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Yahoo Entertainment'}</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yahoo Sports Staff</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NBA Christmas Day: Bucks vs. Knicks score, highlights, news and live updates - Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Five NBA games will get underway on Christmas Day, and the Bucks and Knicks will tip things off.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/nba-christmas-day-bucks-vs-knicks-score-highlights-news-and-live-updates-154556968.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/ny/api/res/1.2/yJalK47XWwuOT2tjyvUuRA--/YXBwaWQ9aGlnaGxhbmRlcjt3PTEyMDA7aD04MDA-/https://s.yimg.com/os/creatr-uploaded-images/2023-12/14b95790-a09b-11ee-abff-f091e75240a1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:09:41Z</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>For the 76th year, NBA basketball on Christmas Day is ready to tip off. The Milwaukee Bucks and New York Knicks lead this year's slate, which offers a total of five star-studded matchups.
+The Knicks… [+1973 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': '[Removed]'}</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://removed.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1970-01-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'NorthJersey.com'}</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>John Connolly</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The Powerball jackpot is now the 18th largest U.S. jackpot ever.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/gcdn/-mm-/5a5fb12c75915ee3924b435f322bceec27a0ba21/c=0-0-520-292/local/-/media/2020/08/25/CantonRepository/ghows-OH-200619197-dd960e7d.jpg?width=520&amp;height=292&amp;fit=crop&amp;format=pjpg&amp;auto=webp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Powerball jackpot will be an estimated $638 million for the Christmas Day drawing.
+No one won it all in Saturday night's drawing so the jackpot just keeps on rising. It is now the 18th largest U… [+7351 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'CBS Sports'}</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NFL Week 16 Christmas Day odds, expert picks, best bets, TV, odds, streaming for all three games - CBS Sports</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CBSSports.com and SportsLine break down all three Christmas games in Week 16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.cbssports.com/nfl/news/nfl-week-16-christmas-day-odds-expert-picks-best-bets-tv-odds-streaming-for-all-three-games/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://sportshub.cbsistatic.com/i/r/2023/12/25/37faf4a1-a9a1-473f-b532-3eee6ec85681/thumbnail/1200x675/97d3c9ff4521663e3102268f2b797347/lamar49ers.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:29:59Z</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Just three weeks remain in the 2023 regular season and the Week 16 was packed with high-profile matchups that'll certainly shake up the playoff picture -- with three more remaining on Christmas Day. … [+3861 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>{'id': 'usa-today', 'name': 'USA Today'}</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marina Pitofsky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Former federal judge says the Constitution could disqualify Donald Trump in 2024, not Joe Biden's actions - USA TODAY</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>"It’s the Constitution of the United States that’s disqualifying the former president from higher office, if he is to be disqualified," former judge J. Michael Luttig said.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/news/politics/elections/2023/12/25/2024-judge-constitution-disqualify-trump-biden/72027446007/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/gcdn/authoring/authoring-images/2023/12/19/USAT/71976841007-ap-fake-electors-nevada.jpg?crop=8297,4667,x0,y432&amp;width=3200&amp;height=1800&amp;format=pjpg&amp;auto=webp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:52:24Z</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conservative former federal judge J. Michael Luttig denied allegations that the Colorado Supreme Courts ruling disqualifying former President Donald Trump from the states presidential primary ballot … [+2256 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>{'id': 'cnn', 'name': 'CNN'}</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian Edwards, Josh Pennington, Anna Chernova</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Demonstrators try to storm Belgrade city hall in protest against ‘stolen’ Serbian elections - CNN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thousands gathered in Belgrade on Sunday in an anti-government protest to demand the annulment of Serbia’s general election last week that was deemed “unjust” by international observers.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/europe/serbia-protest-election-stolen-vucic-intl/index.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://media.cnn.com/api/v1/images/stellar/prod/231225050544-02-belgrade-protests-122423.jpg?c=16x9&amp;q=w_800,c_fill</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:38:00Z</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thousands gathered in Belgrade on Sunday in an anti-government protest to demand the annulment of Serbias general election last week that was deemed unjust by international observers.
+Protesters att… [+3760 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>{'id': 'al-jazeera-english', 'name': 'Al Jazeera English'}</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Al Jazeera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Israeli air strike in Syria kills top Iranian military adviser - Al Jazeera English</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sayyed Razi Mousavi was responsible for coordinating the military alliance between Syria and Iran.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/news/2023/12/25/israeli-air-strike-in-syria-kills-top-iranian-general</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/wp-content/uploads/2023/12/image-1703523572.jpg?resize=1920%2C1080&amp;quality=80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:25Z</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>An Israeli air strike outside the Syrian capital of Damascus has killed a senior adviser in Irans Revolutionary Guard Corps (IRGC), according to reports from Iranian state media.
+Sayyed Razi Mousavi… [+2720 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{'id': 'reuters', 'name': 'Reuters'}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Russia's Navalny tracked down to 'Polar Wolf' prison in the Arctic - Reuters</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/europe/russias-navalny-is-prison-colony-yamal-nenets-region-spokeswoman-2023-12-25/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:00Z</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Hollywood Reporter'}</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pamela McClintock</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Box Office Humbug: ‘Aquaman and the Lost Kingdom’ Opening to $38M-$40M in U.S. - Hollywood Reporter</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The DC superhero pic is nevertheless having no trouble beating a slew of other new holiday films opening, including 'Migration,' 'Anyone But You' and 'The Iron Claw.'</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.hollywoodreporter.com/movies/movie-news/aquaman-lost-kingdom-box-office-opening-1235768905/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.hollywoodreporter.com/wp-content/uploads/2023/12/Aquaman-and-the-Lost-Kingdom-Migration-Anyone-But-You-and-The-Iron-Claw-Split-Publicity-H-2023.jpg?w=1024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:54:19Z</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Christmas revenue at the domestic box office is running behind 2022, a sobering stat as Hollywood studios and theater owners prepare to ring out a topsy-turvy year. 
+As it stands now, combined ticke… [+4550 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Digital Trends'}</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jacob Roach</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>I hope Nvidia never makes an RTX 5090 - Digital Trends</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>We'll probably see the RTX 5090 when Nvidia is ready to release next-gen GPUs, but I hope it doesn't repeat the mistakes of the RTX 4090.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.digitaltrends.com/computing/hope-nvidia-never-makes-rtx-5090/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.digitaltrends.com/wp-content/uploads/2022/10/rtx-4090-suprim-x-5.jpg?resize=1200%2C630&amp;p=1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:30:10Z</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jacob Roach / Digital Trends
+For all the controversies around GPU prices, insane power requirements, and massive coolers, Nvidia’s RTX 4090 remains one of the best graphics cards you can buy. It’s u… [+5380 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Prideofdetroit.com'}</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jeremy Reisman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Detroit Lions behind-the-scenes video on Dan Campbell building a legacy - Pride Of Detroit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>There have been a ton of awesome videos in the aftermath of the Detroit Lions first NFC North crown ever. There’s Dan Campbell’s postgame speech honoring the veterans on the team that have gone...</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.prideofdetroit.com/2023/12/25/24014574/detroit-lions-behind-scenes-video-on-dan-campbell-building-legacy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://cdn.vox-cdn.com/thumbor/ZWZNNOdCNtXOaUFB0Du7cd9ElU0=/0x0:2738x1434/fit-in/1200x630/cdn.vox-cdn.com/uploads/chorus_asset/file/25185615/usa_today_22171653.jpg</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>There have been a ton of awesome videos in the aftermath of the Detroit Lions first NFC North crown ever. Theres Dan Campbells postgame speech honoring the veterans on the team that have gone through… [+1344 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>{'id': 'associated-press', 'name': 'Associated Press'}</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHRISTOPHE ENA, ANGELA CHARLTON</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>276 Indians stuck in a French airport for days for a human trafficking probe have left for India - The Associated Press</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A charter plane grounded in France for a human trafficking investigation has departed for India carrying 276 Indians blocked inside a rural French airport for days. Associated Press reporters outside the Vatry Airport in Champagne country saw the unmarked Leg…</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://apnews.com/article/france-indians-plane-grounded-human-trafficking-147e6408f2df4ec26a7033cb2c429424</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://dims.apnews.com/dims4/default/8a86650/2147483647/strip/true/crop/5616x3159+0+293/resize/1440x810!/quality/90/?url=https%3A%2F%2Fassets.apnews.com%2Fbf%2F05%2F96cbb102ecf1099e9e63fd2abecf%2Fe290868833794000bc3f6ee9f73722b8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:11:15Z</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VATRY, France (AP) A charter plane grounded in France for a human trafficking investigation departed Monday for India with 276 Indians aboard, authorities said. The passengers had been heading to Nic… [+4130 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>{'id': 'politico', 'name': 'Politico'}</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pope denounces weapons industry as he makes Christmas appeal for peace - POLITICO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>"How can we even speak of peace, when arms production, sales and trade are on the rise?”</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.politico.com/news/2023/12/25/pope-weapons-industry-christmas-peace-appeal-00133177</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://static.politico.com/6a/c8/6f31c6eb46639018f794517feb6c/aptopix-vatican-christmas-20060.jpg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:59:10Z</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Francis annual Urbi et Orbi (To the City and the World) speech typically offers a lament of all the misery facing the world, and this years edition was no different. From Armenia and Azerbaijan to Sy… [+1919 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': '[Removed]'}</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://removed.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1970-01-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Space.com'}</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mike Wall</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Japan's SLIM 'moon sniper' lander arrives in lunar orbit for Christmas - Space.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SLIM will attempt to pull off Japan's first-ever moon landing next month.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.space.com/japan-slim-moon-lander-arrives-lunar-orbit</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://cdn.mos.cms.futurecdn.net/E6bm6JHy7uB5vfnhPb7Uak-1200-80.jpg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:10:56Z</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Space is part of Future US Inc, an international media group and leading digital publisher. Visit our corporate site.
+©
+Future US, Inc. Full 7th Floor, 130 West 42nd Street,
+New York,
+NY 10036.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>{'id': 'the-hill', 'name': 'The Hill'}</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jared Gans</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CNN anchor raises Nixon pardon in questioning Trump immunity defense - The Hill</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CNN anchor Jim Acosta raised former President Ford’s pardon of his predecessor, former President Nixon, in questioning former President Trump’s assertion of having total immunity from prosecution for his conduct in office on Sunday.  Acosta asked his guest, f…</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://thehill.com/homenews/media/4376404-cnn-anchor-raises-nixon-pardon-in-questioning-trump-immunity-defense/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://thehill.com/wp-content/uploads/sites/2/2017/02/acosta_021517getty.jpg?w=1280</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:44:00Z</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Skip to content
+CNN anchor Jim Acosta raised former President Ford’s pardon of his predecessor, former President Nixon, in questioning former President Trump’s assertion of having total immunity fro… [+2427 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Page Six'}</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Leah Bitsky</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Inside the Kardashian-Jenner family's festive Christmas party: sledding, stars and caroling - Page Six</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>The Kardashian-Jenner family got into the holiday spirit yet again with a massive Christmas Eve party at Kim Kardashian’s mansion on Sunday night.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://pagesix.com/2023/12/25/entertainment/inside-the-kardashian-jenner-familys-festive-christmas-party/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://pagesix.com/wp-content/uploads/sites/3/2023/12/kardashian-christmas-party-2023.jpg?quality=75&amp;strip=all&amp;w=1024</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:38:00Z</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Kris Kringle’s got nothing on Kim Kardashian. 
+The Kardashian-Jenner family got into the holiday spirit with a massive blowout bash at Kim’s $60 million Los Angeles, Calif., mansion on Christmas Eve… [+3609 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'MacRumors'}</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MacRumors</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kuo: Vision Pro Mass Shipments Begin Next Week, Launch by February - MacRumors</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.macrumors.com/2023/12/25/vision-pro-mass-shipments-timing-kuo/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:18:44Z</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Vox'}</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nylah Burton</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The Color Purple review: The new movie stays true to Alice Walker’s message - Vox.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The Color Purple is a melodrama — and the new movie musical keeps its traditions alive.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.vox.com/culture/24011148/the-color-purple-musical</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://cdn.vox-cdn.com/thumbor/M7ZUHfbYoN4v9kaciKHhRssb8XM=/0x19:2500x1328/fit-in/1200x630/cdn.vox-cdn.com/uploads/chorus_asset/file/25179371/the_color_purple_zz_231018_01_14d998.jpeg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:00:00Z</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Going to see The Color Purple, Blitz Bazawules 2023 musical adaptation of Gary Griffins 2004 Broadway musical adaptation of director Steven Spielbergs 1985 movie adaptation of Alice Walkers 1982 nove… [+13152 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'AL.com'}</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Leada Gore | lgore@al.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>What’s open Christmas day? Drug stores, fast food, coffee shops and more - AL.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Need a last-minute Christmas gift? There are some places open Christmas Day.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.al.com/news/2023/12/whats-open-christmas-day-drug-stores-fast-food-coffee-shops-and-more.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.al.com/resizer/FWqiGzCrAouPaYmTB1n8uLphZeI=/1280x0/smart/cloudfront-us-east-1.images.arcpublishing.com/advancelocal/LASA2C6Q7FFOBI6OQB7VILDVUA.jpg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-12-25T12:03:00Z</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Its tradition for most retailers and many restaurants to be closed on Christmas Day. There are a few exceptions, however, if you find yourself in need of some last-minute holiday items.
+The poll, co… [+902 chars]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>